--- a/data/trans_bre/P20_5_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P20_5_R-Urba-trans_bre.xlsx
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -581,22 +581,22 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>6,61</t>
+          <t>10,58</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-4,27</t>
+          <t>2,76</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>10,8%</t>
+          <t>28,22%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-7,18%</t>
+          <t>6,77%</t>
         </is>
       </c>
     </row>
@@ -609,22 +609,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,57; 15,42</t>
+          <t>-0,35; 21,39</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-15,06; 5,48</t>
+          <t>-12,52; 12,64</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-3,75; 27,51</t>
+          <t>-0,45; 69,76</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-22,36; 9,83</t>
+          <t>-25,68; 36,67</t>
         </is>
       </c>
     </row>
@@ -641,22 +641,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>1,86</t>
+          <t>9,28</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>9,38</t>
+          <t>12,55</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>2,97%</t>
+          <t>23,95%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>18,93%</t>
+          <t>39,88%</t>
         </is>
       </c>
     </row>
@@ -669,22 +669,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-8,45; 13,41</t>
+          <t>-2,34; 20,77</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-3,75; 20,51</t>
+          <t>1,8; 24,1</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-12,32; 23,88</t>
+          <t>-5,89; 65,34</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-6,58; 50,04</t>
+          <t>5,22; 99,18</t>
         </is>
       </c>
     </row>
@@ -701,22 +701,22 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>31,33</t>
+          <t>22,29</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>4,64</t>
+          <t>2,04</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>73,34%</t>
+          <t>90,08%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>8,37%</t>
+          <t>4,43%</t>
         </is>
       </c>
     </row>
@@ -729,22 +729,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>8,82; 54,36</t>
+          <t>-1,0; 47,54</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-21,16; 26,05</t>
+          <t>-35,04; 30,71</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>14,93; 217,04</t>
+          <t>-3,74; 478,89</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-32,94; 67,92</t>
+          <t>-50,82; 116,56</t>
         </is>
       </c>
     </row>
@@ -761,22 +761,22 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>7,63</t>
+          <t>11,39</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>2,08</t>
+          <t>6,56</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>12,87%</t>
+          <t>31,15%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>3,78%</t>
+          <t>17,43%</t>
         </is>
       </c>
     </row>
@@ -789,22 +789,29 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,95; 14,55</t>
+          <t>4,04; 19,91</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-5,67; 9,63</t>
+          <t>-2,18; 14,24</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,62; 26,55</t>
+          <t>9,92; 63,19</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-9,63; 19,39</t>
+          <t>-5,6; 44,1</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P20_5_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P20_5_R-Urba-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -118,7 +121,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -131,6 +134,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -497,7 +506,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -579,179 +588,127 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>10,58</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>2,76</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>28,22%</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>6,77%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>11.61498075093252</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>2.037291237098815</v>
+      </c>
+      <c r="E4" s="6" t="n">
+        <v>0.2075129576585669</v>
+      </c>
+      <c r="F4" s="6" t="n">
+        <v>0.03517045378486609</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-0,35; 21,39</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-12,52; 12,64</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-0,45; 69,76</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-25,68; 36,67</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>0.08764933884615814</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-12.01686990284705</v>
+      </c>
+      <c r="E5" s="6" t="n">
+        <v>0.005171476714629482</v>
+      </c>
+      <c r="F5" s="6" t="n">
+        <v>-0.1797208919580204</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>23.77359401346997</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>15.19588710349804</v>
+      </c>
+      <c r="E6" s="6" t="n">
+        <v>0.4864630951884271</v>
+      </c>
+      <c r="F6" s="6" t="n">
+        <v>0.3033082443577949</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Intermedio</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>9,28</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>12,55</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>23,95%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>39,88%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-2,34; 20,77</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>1,8; 24,1</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-5,89; 65,34</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>5,22; 99,18</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>3.864123135630426</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>11.46478622538247</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>0.06340662214665442</v>
+      </c>
+      <c r="F7" s="6" t="n">
+        <v>0.2408350141484356</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>22,29</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>2,04</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>90,08%</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>4,43%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-8.962509331878186</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-1.756362281278273</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>-0.1324783006262842</v>
+      </c>
+      <c r="F8" s="6" t="n">
+        <v>-0.03579183486594303</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-1,0; 47,54</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-35,04; 30,71</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-3,74; 478,89</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-50,82; 116,56</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>15.50001302589781</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>24.50757261607589</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>0.2918982083990058</v>
+      </c>
+      <c r="F9" s="6" t="n">
+        <v>0.6192439608153077</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -759,57 +716,125 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>11,39</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>6,56</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>31,15%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>17,43%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>30.16967208931489</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>8.832072680309244</v>
+      </c>
+      <c r="E10" s="6" t="n">
+        <v>0.8386663233396711</v>
+      </c>
+      <c r="F10" s="6" t="n">
+        <v>0.1472485428799772</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>4,04; 19,91</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-2,18; 14,24</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>9,92; 63,19</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-5,6; 44,1</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-3.701083020255945</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-30.32696859851688</v>
+      </c>
+      <c r="E11" s="6" t="n">
+        <v>-0.06578385570431496</v>
+      </c>
+      <c r="F11" s="6" t="n">
+        <v>-0.4221995719416992</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>62.76323355847815</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>40.10910170001132</v>
+      </c>
+      <c r="E12" s="6" t="n">
+        <v>4.64243602808199</v>
+      </c>
+      <c r="F12" s="6" t="n">
+        <v>1.113865544336509</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>10.74011555727177</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>6.229777518759017</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>0.1932983696091454</v>
+      </c>
+      <c r="F13" s="6" t="n">
+        <v>0.1149202365276206</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>1.060368513367782</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-4.075460171233528</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>0.02308488493080638</v>
+      </c>
+      <c r="F14" s="6" t="n">
+        <v>-0.06840837580258441</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>19.75826386075352</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>14.30790599556702</v>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>0.4137332442934717</v>
+      </c>
+      <c r="F15" s="6" t="n">
+        <v>0.2900894502766557</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
@@ -817,13 +842,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
     <mergeCell ref="C1:D1"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
